--- a/Check/CHT-HT/10 tin.xlsx
+++ b/Check/CHT-HT/10 tin.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -1435,6 +1435,34 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11/05/2023 - 09:27:50</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>760728</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Lê Trần Hoàng Lân</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10 tin</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D2:D3"/>
